--- a/Nuevo formato de inventario.xlsx
+++ b/Nuevo formato de inventario.xlsx
@@ -42,14 +42,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008fce00"/>
-        <bgColor rgb="008fce00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="008fce00"/>
+        <bgColor rgb="008fce00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="E8" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>499</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>500</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="E9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>501</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>500</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>sistema_y</t>
+          <t>sistema</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>sistema_x</t>
+          <t>fisico</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>5</v>
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1801,9 +1801,7 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E2" s="0" t="inlineStr"/>
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
@@ -1845,9 +1843,7 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E3" s="0" t="inlineStr"/>
       <c r="F3" s="0" t="n">
         <v>8</v>
       </c>
@@ -1889,9 +1885,7 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E4" s="0" t="inlineStr"/>
       <c r="F4" s="0" t="n">
         <v>5</v>
       </c>
@@ -1933,9 +1927,7 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E5" s="0" t="inlineStr"/>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
@@ -1977,9 +1969,7 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E6" s="0" t="inlineStr"/>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
@@ -2021,9 +2011,7 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E7" s="0" t="inlineStr"/>
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
@@ -2065,11 +2053,9 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E8" s="0" t="inlineStr"/>
       <c r="F8" s="0" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -2109,11 +2095,9 @@
           <t>PZ</t>
         </is>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="E9" s="0" t="inlineStr"/>
       <c r="F9" s="0" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
